--- a/Development/MetaData/MetaDataCCP.xlsx
+++ b/Development/MetaData/MetaDataCCP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basti\ARBEIT Lokal\CCPhos\Development\MetaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E17888A-8E74-4E7F-B01F-4E9ADD83F775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602768B2-658C-4F21-9B3F-7DB6C74EF133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{035133D3-9E9F-4CDB-BCDC-A149BB1E9383}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="489">
   <si>
     <t>D</t>
   </si>
@@ -635,12 +635,6 @@
     <t>Ordinal</t>
   </si>
   <si>
-    <t>ChemotherapyIntention</t>
-  </si>
-  <si>
-    <t>ChemotherapyRelationToSurgery</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -650,9 +644,6 @@
     <t>Fehlende Angabe</t>
   </si>
   <si>
-    <t>TherapeuticResponse</t>
-  </si>
-  <si>
     <t>Complete Remission</t>
   </si>
   <si>
@@ -908,9 +899,6 @@
     <t>SampleType</t>
   </si>
   <si>
-    <t>SampleTissue</t>
-  </si>
-  <si>
     <t>Protein</t>
   </si>
   <si>
@@ -1298,9 +1286,6 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>DateLastVitalStatus</t>
-  </si>
-  <si>
     <t>DeathCancerRelated</t>
   </si>
   <si>
@@ -1343,18 +1328,6 @@
     <t>DateOfInvestigation</t>
   </si>
   <si>
-    <t>DateLocalRelapse</t>
-  </si>
-  <si>
-    <t>IsLocalRelapse</t>
-  </si>
-  <si>
-    <t>IsLymphnodalRelapse</t>
-  </si>
-  <si>
-    <t>DateHistology</t>
-  </si>
-  <si>
     <t>ICDOMorphologyVersion</t>
   </si>
   <si>
@@ -1367,18 +1340,9 @@
     <t>TNMID</t>
   </si>
   <si>
-    <t>DateTNM</t>
-  </si>
-  <si>
     <t>HasDistantMetastasis</t>
   </si>
   <si>
-    <t>DateDistantMetastasis</t>
-  </si>
-  <si>
-    <t>TotalAssessment</t>
-  </si>
-  <si>
     <t>TNM_ySmbol</t>
   </si>
   <si>
@@ -1415,9 +1379,6 @@
     <t>IsChemotherapy</t>
   </si>
   <si>
-    <t>IsHormonetherapy</t>
-  </si>
-  <si>
     <t>IsImmunotherapy</t>
   </si>
   <si>
@@ -1463,9 +1424,6 @@
     <t>MolecularDiagnosticsStatus</t>
   </si>
   <si>
-    <t>DateSampleTaking</t>
-  </si>
-  <si>
     <t>SampleStatus</t>
   </si>
   <si>
@@ -1487,9 +1445,6 @@
     <t>TableName_Raw</t>
   </si>
   <si>
-    <t>TableName_Harmonized</t>
-  </si>
-  <si>
     <t>RadiationTherapy</t>
   </si>
   <si>
@@ -1499,9 +1454,6 @@
     <t>FeatureName_Raw</t>
   </si>
   <si>
-    <t>FeatureName_Harmonized</t>
-  </si>
-  <si>
     <t>Patient</t>
   </si>
   <si>
@@ -1511,13 +1463,46 @@
     <t>Value_Raw</t>
   </si>
   <si>
-    <t>Value_Harmonized</t>
-  </si>
-  <si>
     <t>Label_Raw</t>
   </si>
   <si>
-    <t>Label_Harmonized</t>
+    <t>TableName_Curated</t>
+  </si>
+  <si>
+    <t>Value_Curated</t>
+  </si>
+  <si>
+    <t>Label_Curated</t>
+  </si>
+  <si>
+    <t>FeatureName_Curated</t>
+  </si>
+  <si>
+    <t>GlobalStatusAssessment</t>
+  </si>
+  <si>
+    <t>IsHormoneTherapy</t>
+  </si>
+  <si>
+    <t>MetastasisDiagnosisDate</t>
+  </si>
+  <si>
+    <t>LastVitalStatusDate</t>
+  </si>
+  <si>
+    <t>LocalRelapseDate</t>
+  </si>
+  <si>
+    <t>HistologyDate</t>
+  </si>
+  <si>
+    <t>SampleTakingDate</t>
+  </si>
+  <si>
+    <t>TNMDocumentationDate</t>
+  </si>
+  <si>
+    <t>SystemicTherapyIntention</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1919,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1949,31 +1934,31 @@
   <sheetData>
     <row r="1" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>170</v>
@@ -1981,7 +1966,7 @@
     </row>
     <row r="5" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>173</v>
@@ -1989,7 +1974,7 @@
     </row>
     <row r="6" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>172</v>
@@ -1997,7 +1982,7 @@
     </row>
     <row r="7" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>171</v>
@@ -2005,42 +1990,42 @@
     </row>
     <row r="8" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2053,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8BF945-9186-40D3-A998-0B845CD0DDFC}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2072,24 +2057,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>VLOOKUP(A2,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2099,15 +2084,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B3" s="4" t="str">
         <f>VLOOKUP(A3,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2117,15 +2102,15 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>VLOOKUP(A4,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2135,15 +2120,15 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B5" s="4" t="str">
         <f>VLOOKUP(A5,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2153,15 +2138,15 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B6" s="4" t="str">
         <f>VLOOKUP(A6,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2171,15 +2156,15 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>VLOOKUP(A7,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2189,15 +2174,15 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>VLOOKUP(A8,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2207,7 +2192,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>8</v>
@@ -2215,7 +2200,7 @@
     </row>
     <row r="9" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B9" s="4" t="str">
         <f>VLOOKUP(A9,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2225,15 +2210,15 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B10" s="4" t="str">
         <f>VLOOKUP(A10,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2243,15 +2228,15 @@
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B11" s="4" t="str">
         <f>VLOOKUP(A11,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2261,15 +2246,15 @@
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>VLOOKUP(A12,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2279,15 +2264,15 @@
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B13" s="4" t="str">
         <f>VLOOKUP(A13,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2297,15 +2282,15 @@
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B14" s="4" t="str">
         <f>VLOOKUP(A14,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2315,15 +2300,15 @@
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B15" s="4" t="str">
         <f>VLOOKUP(A15,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2333,15 +2318,15 @@
         <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B16" s="4" t="str">
         <f>VLOOKUP(A16,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2351,15 +2336,15 @@
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B17" s="4" t="str">
         <f>VLOOKUP(A17,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2369,15 +2354,15 @@
         <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B18" s="4" t="str">
         <f>VLOOKUP(A18,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2387,15 +2372,15 @@
         <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B19" s="4" t="str">
         <f>VLOOKUP(A19,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2405,7 +2390,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>165</v>
@@ -2413,7 +2398,7 @@
     </row>
     <row r="20" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B20" s="4" t="str">
         <f>VLOOKUP(A20,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2423,15 +2408,15 @@
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B21" s="4" t="str">
         <f>VLOOKUP(A21,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2441,15 +2426,15 @@
         <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B22" s="4" t="str">
         <f>VLOOKUP(A22,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2459,15 +2444,15 @@
         <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B23" s="4" t="str">
         <f>VLOOKUP(A23,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2477,15 +2462,15 @@
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B24" s="4" t="str">
         <f>VLOOKUP(A24,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2495,15 +2480,15 @@
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B25" s="4" t="str">
         <f>VLOOKUP(A25,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2513,15 +2498,15 @@
         <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B26" s="4" t="str">
         <f>VLOOKUP(A26,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2531,15 +2516,15 @@
         <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>436</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B27" s="4" t="str">
         <f>VLOOKUP(A27,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2549,15 +2534,15 @@
         <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>437</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B28" s="4" t="str">
         <f>VLOOKUP(A28,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2567,15 +2552,15 @@
         <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B29" s="4" t="str">
         <f>VLOOKUP(A29,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2585,15 +2570,15 @@
         <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B30" s="4" t="str">
         <f>VLOOKUP(A30,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2603,15 +2588,15 @@
         <v>2</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>VLOOKUP(A31,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2621,15 +2606,15 @@
         <v>3</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B32" s="4" t="str">
         <f>VLOOKUP(A32,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2639,15 +2624,15 @@
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B33" s="4" t="str">
         <f>VLOOKUP(A33,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2657,15 +2642,15 @@
         <v>5</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B34" s="4" t="str">
         <f>VLOOKUP(A34,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2675,15 +2660,15 @@
         <v>6</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B35" s="4" t="str">
         <f>VLOOKUP(A35,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2693,15 +2678,15 @@
         <v>7</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B36" s="4" t="str">
         <f>VLOOKUP(A36,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2711,7 +2696,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>11</v>
@@ -2719,7 +2704,7 @@
     </row>
     <row r="37" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B37" s="4" t="str">
         <f>VLOOKUP(A37,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2729,15 +2714,15 @@
         <v>1</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B38" s="4" t="str">
         <f>VLOOKUP(A38,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2747,15 +2732,15 @@
         <v>2</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B39" s="4" t="str">
         <f>VLOOKUP(A39,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2765,15 +2750,15 @@
         <v>3</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B40" s="4" t="str">
         <f>VLOOKUP(A40,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2783,15 +2768,15 @@
         <v>4</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B41" s="4" t="str">
         <f>VLOOKUP(A41,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2801,15 +2786,15 @@
         <v>5</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B42" s="4" t="str">
         <f>VLOOKUP(A42,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2819,7 +2804,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>137</v>
@@ -2827,7 +2812,7 @@
     </row>
     <row r="43" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B43" s="4" t="str">
         <f>VLOOKUP(A43,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2837,15 +2822,15 @@
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B44" s="4" t="str">
         <f>VLOOKUP(A44,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2855,15 +2840,15 @@
         <v>2</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B45" s="4" t="str">
         <f>VLOOKUP(A45,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2873,15 +2858,15 @@
         <v>3</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B46" s="4" t="str">
         <f>VLOOKUP(A46,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2891,15 +2876,15 @@
         <v>4</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B47" s="4" t="str">
         <f>VLOOKUP(A47,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2909,7 +2894,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>28</v>
@@ -2917,7 +2902,7 @@
     </row>
     <row r="48" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B48" s="4" t="str">
         <f>VLOOKUP(A48,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2927,7 +2912,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>29</v>
@@ -2935,7 +2920,7 @@
     </row>
     <row r="49" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B49" s="4" t="str">
         <f>VLOOKUP(A49,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2945,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>30</v>
@@ -2953,7 +2938,7 @@
     </row>
     <row r="50" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B50" s="4" t="str">
         <f>VLOOKUP(A50,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2963,7 +2948,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>31</v>
@@ -2971,7 +2956,7 @@
     </row>
     <row r="51" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B51" s="4" t="str">
         <f>VLOOKUP(A51,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2981,7 +2966,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>32</v>
@@ -2989,7 +2974,7 @@
     </row>
     <row r="52" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B52" s="4" t="str">
         <f>VLOOKUP(A52,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -2999,7 +2984,7 @@
         <v>10</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>33</v>
@@ -3007,7 +2992,7 @@
     </row>
     <row r="53" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B53" s="4" t="str">
         <f>VLOOKUP(A53,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3017,7 +3002,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>34</v>
@@ -3025,7 +3010,7 @@
     </row>
     <row r="54" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B54" s="4" t="str">
         <f>VLOOKUP(A54,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3035,15 +3020,15 @@
         <v>12</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B55" s="4" t="str">
         <f>VLOOKUP(A55,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3053,15 +3038,15 @@
         <v>13</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B56" s="4" t="str">
         <f>VLOOKUP(A56,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3071,15 +3056,15 @@
         <v>14</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B57" s="4" t="str">
         <f>VLOOKUP(A57,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3089,15 +3074,15 @@
         <v>15</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B58" s="4" t="str">
         <f>VLOOKUP(A58,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3107,15 +3092,15 @@
         <v>1</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B59" s="4" t="str">
         <f>VLOOKUP(A59,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3125,15 +3110,15 @@
         <v>2</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B60" s="4" t="str">
         <f>VLOOKUP(A60,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3143,15 +3128,15 @@
         <v>3</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B61" s="4" t="str">
         <f>VLOOKUP(A61,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3161,15 +3146,15 @@
         <v>4</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B62" s="4" t="str">
         <f>VLOOKUP(A62,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3179,15 +3164,15 @@
         <v>5</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>199</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B63" s="4" t="str">
         <f>VLOOKUP(A63,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3197,15 +3182,15 @@
         <v>6</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B64" s="4" t="str">
         <f>VLOOKUP(A64,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3215,15 +3200,15 @@
         <v>7</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B65" s="4" t="str">
         <f>VLOOKUP(A65,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3233,15 +3218,15 @@
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B66" s="4" t="str">
         <f>VLOOKUP(A66,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3251,15 +3236,15 @@
         <v>9</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B67" s="4" t="str">
         <f>VLOOKUP(A67,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3269,15 +3254,15 @@
         <v>10</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B68" s="4" t="str">
         <f>VLOOKUP(A68,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3287,15 +3272,15 @@
         <v>11</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B69" s="4" t="str">
         <f>VLOOKUP(A69,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3305,15 +3290,15 @@
         <v>12</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B70" s="4" t="str">
         <f>VLOOKUP(A70,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3323,15 +3308,15 @@
         <v>13</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B71" s="4" t="str">
         <f>VLOOKUP(A71,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3341,15 +3326,15 @@
         <v>14</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B72" s="4" t="str">
         <f>VLOOKUP(A72,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3359,15 +3344,15 @@
         <v>15</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B73" s="4" t="str">
         <f>VLOOKUP(A73,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3377,15 +3362,15 @@
         <v>1</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B74" s="4" t="str">
         <f>VLOOKUP(A74,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3395,15 +3380,15 @@
         <v>2</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B75" s="4" t="str">
         <f>VLOOKUP(A75,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3413,15 +3398,15 @@
         <v>3</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B76" s="4" t="str">
         <f>VLOOKUP(A76,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3431,15 +3416,15 @@
         <v>4</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B77" s="4" t="str">
         <f>VLOOKUP(A77,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3449,15 +3434,15 @@
         <v>5</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B78" s="4" t="str">
         <f>VLOOKUP(A78,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3467,7 +3452,7 @@
         <v>6</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>174</v>
@@ -3475,7 +3460,7 @@
     </row>
     <row r="79" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B79" s="4" t="str">
         <f>VLOOKUP(A79,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3485,15 +3470,15 @@
         <v>7</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B80" s="4" t="str">
         <f>VLOOKUP(A80,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3503,15 +3488,15 @@
         <v>8</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B81" s="4" t="str">
         <f>VLOOKUP(A81,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3521,15 +3506,15 @@
         <v>1</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B82" s="4" t="str">
         <f>VLOOKUP(A82,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3539,15 +3524,15 @@
         <v>2</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B83" s="4" t="str">
         <f>VLOOKUP(A83,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3557,15 +3542,15 @@
         <v>3</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B84" s="4" t="str">
         <f>VLOOKUP(A84,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3575,15 +3560,15 @@
         <v>4</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B85" s="4" t="str">
         <f>VLOOKUP(A85,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3593,15 +3578,15 @@
         <v>5</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B86" s="4" t="str">
         <f>VLOOKUP(A86,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3611,15 +3596,15 @@
         <v>6</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B87" s="4" t="str">
         <f>VLOOKUP(A87,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3629,15 +3614,15 @@
         <v>7</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B88" s="4" t="str">
         <f>VLOOKUP(A88,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3647,15 +3632,15 @@
         <v>1</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B89" s="4" t="str">
         <f>VLOOKUP(A89,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3665,15 +3650,15 @@
         <v>2</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B90" s="4" t="str">
         <f>VLOOKUP(A90,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3683,15 +3668,15 @@
         <v>3</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B91" s="4" t="str">
         <f>VLOOKUP(A91,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3701,15 +3686,15 @@
         <v>4</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B92" s="4" t="str">
         <f>VLOOKUP(A92,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3719,15 +3704,15 @@
         <v>5</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B93" s="4" t="str">
         <f>VLOOKUP(A93,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3737,15 +3722,15 @@
         <v>6</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B94" s="4" t="str">
         <f>VLOOKUP(A94,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3755,15 +3740,15 @@
         <v>7</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B95" s="4" t="str">
         <f>VLOOKUP(A95,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3773,15 +3758,15 @@
         <v>1</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B96" s="4" t="str">
         <f>VLOOKUP(A96,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3791,15 +3776,15 @@
         <v>2</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B97" s="4" t="str">
         <f>VLOOKUP(A97,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3809,15 +3794,15 @@
         <v>3</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B98" s="4" t="str">
         <f>VLOOKUP(A98,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3827,15 +3812,15 @@
         <v>4</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B99" s="4" t="str">
         <f>VLOOKUP(A99,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3845,15 +3830,15 @@
         <v>5</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B100" s="4" t="str">
         <f>VLOOKUP(A100,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3863,15 +3848,15 @@
         <v>6</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B101" s="4" t="str">
         <f>VLOOKUP(A101,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3881,15 +3866,15 @@
         <v>7</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B102" s="4" t="str">
         <f>VLOOKUP(A102,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3899,15 +3884,15 @@
         <v>8</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B103" s="4" t="str">
         <f>VLOOKUP(A103,TableNames!$A$2:$B$12,2,FALSE)</f>
@@ -3917,10 +3902,10 @@
         <v>9</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -3934,10 +3919,10 @@
   <dimension ref="A1:M261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D246" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="C249" sqref="C249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3959,28 +3944,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>195</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>196</v>
@@ -3988,13 +3973,13 @@
     </row>
     <row r="2" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>197</v>
@@ -4014,13 +3999,13 @@
     </row>
     <row r="3" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>197</v>
@@ -4040,13 +4025,13 @@
     </row>
     <row r="4" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>197</v>
@@ -4066,13 +4051,13 @@
     </row>
     <row r="5" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>197</v>
@@ -4092,7 +4077,7 @@
     </row>
     <row r="6" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -4115,7 +4100,7 @@
     </row>
     <row r="7" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
@@ -4138,7 +4123,7 @@
     </row>
     <row r="8" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -4165,7 +4150,7 @@
     </row>
     <row r="9" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -4192,7 +4177,7 @@
     </row>
     <row r="10" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -4219,7 +4204,7 @@
     </row>
     <row r="11" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -4246,7 +4231,7 @@
     </row>
     <row r="12" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -4273,7 +4258,7 @@
     </row>
     <row r="13" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -8128,49 +8113,57 @@
         <v>173</v>
       </c>
       <c r="B177" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G177" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H177" s="5"/>
+        <v>203</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I177" s="4">
+        <v>1</v>
+      </c>
+      <c r="K177" s="5"/>
+      <c r="L177" s="5"/>
+      <c r="M177" s="5"/>
     </row>
     <row r="178" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B178" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>176</v>
+        <v>198</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G178" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="H178" s="5"/>
+        <v>211</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I178" s="4">
+        <v>2</v>
+      </c>
       <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
       <c r="M178" s="5"/>
     </row>
     <row r="179" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8178,24 +8171,26 @@
         <v>173</v>
       </c>
       <c r="B179" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>0</v>
+        <v>198</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G179" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H179" s="5"/>
+        <v>204</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I179" s="4">
+        <v>3</v>
+      </c>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
       <c r="M179" s="5"/>
@@ -8205,24 +8200,26 @@
         <v>173</v>
       </c>
       <c r="B180" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>164</v>
+        <v>198</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G180" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="H180" s="5"/>
+        <v>209</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I180" s="4">
+        <v>4</v>
+      </c>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
       <c r="M180" s="5"/>
@@ -8232,24 +8229,26 @@
         <v>173</v>
       </c>
       <c r="B181" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G181" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H181" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I181" s="4">
+        <v>5</v>
+      </c>
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
       <c r="M181" s="5"/>
@@ -8259,22 +8258,26 @@
         <v>173</v>
       </c>
       <c r="B182" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F182" s="6"/>
-      <c r="G182" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H182" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I182" s="4">
+        <v>6</v>
+      </c>
       <c r="K182" s="5"/>
       <c r="L182" s="5"/>
       <c r="M182" s="5"/>
@@ -8284,24 +8287,28 @@
         <v>173</v>
       </c>
       <c r="B183" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>175</v>
+        <v>198</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>178</v>
+        <v>200</v>
+      </c>
+      <c r="I183" s="4">
+        <v>7</v>
       </c>
       <c r="K183" s="5"/>
+      <c r="L183" s="5"/>
       <c r="M183" s="5"/>
     </row>
     <row r="184" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8309,802 +8316,914 @@
         <v>173</v>
       </c>
       <c r="B184" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>176</v>
+        <v>198</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="I184" s="4">
+        <v>8</v>
+      </c>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
+      <c r="M184" s="5"/>
     </row>
     <row r="185" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B185" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F185" s="6" t="s">
-        <v>184</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F185" s="6"/>
       <c r="G185" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="I185" s="4">
+        <v>9</v>
+      </c>
+      <c r="K185" s="5"/>
+      <c r="L185" s="5"/>
+      <c r="M185" s="5"/>
     </row>
     <row r="186" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B186" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>468</v>
+        <v>215</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F186" s="6"/>
+        <v>198</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="G186" s="8" t="s">
-        <v>182</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I186" s="4">
+        <v>1</v>
+      </c>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
     </row>
     <row r="187" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B187" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>467</v>
+        <v>215</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G187" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H187" s="5"/>
+        <v>224</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I187" s="4">
+        <v>2</v>
+      </c>
+      <c r="J187" s="5"/>
       <c r="K187" s="5"/>
-      <c r="M187" s="5"/>
     </row>
     <row r="188" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B188" s="4">
+        <v>7</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G188" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I188" s="4">
         <v>3</v>
       </c>
-      <c r="C188" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E188" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F188" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G188" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="H188" s="5"/>
+      <c r="J188" s="5"/>
       <c r="K188" s="5"/>
-      <c r="M188" s="5"/>
     </row>
     <row r="189" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B189" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>467</v>
+        <v>215</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E189" s="6" t="s">
-        <v>190</v>
+        <v>198</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G189" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H189" s="5"/>
+        <v>256</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H189" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I189" s="4">
+        <v>4</v>
+      </c>
+      <c r="J189" s="5"/>
       <c r="K189" s="5"/>
-      <c r="M189" s="5"/>
     </row>
     <row r="190" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B190" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>467</v>
+        <v>215</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G190" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="H190" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I190" s="4">
+        <v>5</v>
+      </c>
+      <c r="J190" s="5"/>
       <c r="K190" s="5"/>
-      <c r="M190" s="5"/>
     </row>
     <row r="191" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B191" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>467</v>
+        <v>215</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G191" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H191" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I191" s="4">
+        <v>6</v>
+      </c>
+      <c r="J191" s="5"/>
       <c r="K191" s="5"/>
-      <c r="M191" s="5"/>
     </row>
     <row r="192" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B192" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E192" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>181</v>
+        <v>198</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I192" s="4">
+        <v>7</v>
+      </c>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+    </row>
+    <row r="193" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B193" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>176</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F193" s="6"/>
       <c r="G193" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="H193" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I193" s="4">
+        <v>8</v>
+      </c>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+    </row>
+    <row r="194" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B194" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="G194" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I194" s="6">
+        <v>1</v>
+      </c>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="5"/>
+    </row>
+    <row r="195" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B195" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I195" s="6">
+        <v>2</v>
+      </c>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="5"/>
+    </row>
+    <row r="196" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B196" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G196" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H196" s="5"/>
-    </row>
-    <row r="197" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I196" s="6">
+        <v>3</v>
+      </c>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="5"/>
+    </row>
+    <row r="197" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B197" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>189</v>
+        <v>198</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G197" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="H197" s="5"/>
-    </row>
-    <row r="198" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I197" s="6">
+        <v>4</v>
+      </c>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="5"/>
+    </row>
+    <row r="198" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B198" s="4">
+        <v>8</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I198" s="6">
         <v>5</v>
       </c>
-      <c r="C198" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F198" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G198" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H198" s="5"/>
-    </row>
-    <row r="199" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="5"/>
+    </row>
+    <row r="199" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B199" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G199" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="H199" s="5"/>
-    </row>
-    <row r="200" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I199" s="6">
+        <v>6</v>
+      </c>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="5"/>
+    </row>
+    <row r="200" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B200" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>177</v>
+        <v>198</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G200" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H200" s="5"/>
-    </row>
-    <row r="201" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I200" s="6">
+        <v>7</v>
+      </c>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="5"/>
+    </row>
+    <row r="201" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B201" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E201" s="4" t="s">
+      <c r="E201" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201" s="6"/>
+      <c r="G201" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H201" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F201" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G201" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I201" s="4">
-        <v>1</v>
-      </c>
+      <c r="I201" s="6">
+        <v>8</v>
+      </c>
+      <c r="J201" s="5"/>
       <c r="K201" s="5"/>
       <c r="L201" s="5"/>
-      <c r="M201" s="5"/>
-    </row>
-    <row r="202" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B202" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="I202" s="4">
-        <v>2</v>
+        <v>246</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I202" s="6">
+        <v>1</v>
       </c>
       <c r="K202" s="5"/>
-      <c r="L202" s="5"/>
-      <c r="M202" s="5"/>
-    </row>
-    <row r="203" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B203" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I203" s="4">
-        <v>3</v>
+        <v>251</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I203" s="6">
+        <v>2</v>
       </c>
       <c r="K203" s="5"/>
-      <c r="L203" s="5"/>
-      <c r="M203" s="5"/>
-    </row>
-    <row r="204" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B204" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="I204" s="4">
-        <v>4</v>
+        <v>247</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I204" s="6">
+        <v>3</v>
       </c>
       <c r="K204" s="5"/>
-      <c r="L204" s="5"/>
-      <c r="M204" s="5"/>
-    </row>
-    <row r="205" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B205" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I205" s="4">
-        <v>5</v>
+        <v>312</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I205" s="6">
+        <v>4</v>
       </c>
       <c r="K205" s="5"/>
-      <c r="L205" s="5"/>
-      <c r="M205" s="5"/>
-    </row>
-    <row r="206" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B206" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E206" s="6" t="s">
-        <v>0</v>
+      <c r="E206" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="G206" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I206" s="4">
-        <v>6</v>
+        <v>260</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I206" s="6">
+        <v>5</v>
       </c>
       <c r="K206" s="5"/>
-      <c r="L206" s="5"/>
-      <c r="M206" s="5"/>
-    </row>
-    <row r="207" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B207" s="4">
+        <v>9</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G207" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H207" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I207" s="6">
         <v>6</v>
       </c>
-      <c r="C207" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E207" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F207" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G207" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="I207" s="4">
-        <v>7</v>
-      </c>
       <c r="K207" s="5"/>
-      <c r="L207" s="5"/>
-      <c r="M207" s="5"/>
-    </row>
-    <row r="208" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B208" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E208" s="4" t="s">
-        <v>3</v>
+      <c r="E208" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I208" s="4">
-        <v>8</v>
+        <v>227</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I208" s="6">
+        <v>7</v>
       </c>
       <c r="K208" s="5"/>
-      <c r="L208" s="5"/>
-      <c r="M208" s="5"/>
     </row>
     <row r="209" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B209" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F209" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G209" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="I209" s="4">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I209" s="6">
+        <v>8</v>
       </c>
       <c r="K209" s="5"/>
-      <c r="L209" s="5"/>
-      <c r="M209" s="5"/>
     </row>
     <row r="210" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B210" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E210" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>190</v>
-      </c>
+      <c r="E210" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210" s="6"/>
       <c r="G210" s="8" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I210" s="4">
-        <v>1</v>
-      </c>
-      <c r="J210" s="5"/>
+        <v>201</v>
+      </c>
+      <c r="I210" s="6">
+        <v>9</v>
+      </c>
       <c r="K210" s="5"/>
     </row>
     <row r="211" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B211" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G211" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="H211" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I211" s="4">
-        <v>2</v>
-      </c>
-      <c r="J211" s="5"/>
-      <c r="K211" s="5"/>
+        <v>181</v>
+      </c>
+      <c r="G211" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H211" s="5"/>
     </row>
     <row r="212" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B212" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G212" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="H212" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I212" s="4">
-        <v>3</v>
-      </c>
-      <c r="J212" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="G212" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H212" s="5"/>
       <c r="K212" s="5"/>
+      <c r="M212" s="5"/>
     </row>
     <row r="213" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B213" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>176</v>
+        <v>197</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G213" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="H213" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I213" s="4">
-        <v>4</v>
-      </c>
-      <c r="J213" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="G213" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H213" s="5"/>
       <c r="K213" s="5"/>
+      <c r="L213" s="5"/>
+      <c r="M213" s="5"/>
     </row>
     <row r="214" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B214" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>164</v>
@@ -9112,1371 +9231,1237 @@
       <c r="F214" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G214" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="H214" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="I214" s="4">
-        <v>5</v>
-      </c>
-      <c r="J214" s="5"/>
+      <c r="G214" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H214" s="5"/>
       <c r="K214" s="5"/>
+      <c r="L214" s="5"/>
+      <c r="M214" s="5"/>
     </row>
     <row r="215" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B215" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G215" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H215" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I215" s="4">
-        <v>6</v>
-      </c>
-      <c r="J215" s="5"/>
+        <v>184</v>
+      </c>
+      <c r="G215" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H215" s="5"/>
       <c r="K215" s="5"/>
+      <c r="L215" s="5"/>
+      <c r="M215" s="5"/>
     </row>
     <row r="216" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B216" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F216" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G216" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H216" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I216" s="4">
-        <v>7</v>
-      </c>
-      <c r="J216" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="F216" s="6"/>
+      <c r="G216" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H216" s="5"/>
       <c r="K216" s="5"/>
+      <c r="L216" s="5"/>
+      <c r="M216" s="5"/>
     </row>
     <row r="217" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B217" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F217" s="6"/>
+        <v>263</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="G217" s="8" t="s">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I217" s="4">
-        <v>8</v>
-      </c>
-      <c r="J217" s="5"/>
+        <v>264</v>
+      </c>
+      <c r="I217" s="6">
+        <v>1</v>
+      </c>
       <c r="K217" s="5"/>
     </row>
     <row r="218" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B218" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E218" s="4" t="s">
-        <v>175</v>
+      <c r="E218" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="I218" s="6">
-        <v>1</v>
-      </c>
-      <c r="J218" s="5"/>
+        <v>2</v>
+      </c>
       <c r="K218" s="5"/>
-      <c r="L218" s="5"/>
     </row>
     <row r="219" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B219" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E219" s="4" t="s">
-        <v>17</v>
+      <c r="E219" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="I219" s="6">
-        <v>2</v>
-      </c>
-      <c r="J219" s="5"/>
+        <v>3</v>
+      </c>
       <c r="K219" s="5"/>
-      <c r="L219" s="5"/>
     </row>
     <row r="220" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B220" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E220" s="4" t="s">
-        <v>190</v>
+      <c r="E220" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="I220" s="6">
-        <v>3</v>
-      </c>
-      <c r="J220" s="5"/>
+        <v>4</v>
+      </c>
       <c r="K220" s="5"/>
-      <c r="L220" s="5"/>
     </row>
     <row r="221" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B221" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E221" s="4" t="s">
-        <v>176</v>
+      <c r="E221" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="I221" s="6">
-        <v>4</v>
-      </c>
-      <c r="J221" s="5"/>
+        <v>5</v>
+      </c>
       <c r="K221" s="5"/>
-      <c r="L221" s="5"/>
     </row>
     <row r="222" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B222" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E222" s="4" t="s">
-        <v>164</v>
+      <c r="E222" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="I222" s="6">
-        <v>5</v>
-      </c>
-      <c r="J222" s="5"/>
+        <v>6</v>
+      </c>
       <c r="K222" s="5"/>
-      <c r="L222" s="5"/>
     </row>
     <row r="223" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B223" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="G223" s="8" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="I223" s="6">
-        <v>6</v>
-      </c>
-      <c r="J223" s="5"/>
-      <c r="K223" s="5"/>
-      <c r="L223" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B224" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E224" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G224" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I224" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B225" s="4">
+        <v>2</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="H225" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I225" s="6">
         <v>3</v>
       </c>
-      <c r="F224" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G224" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H224" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I224" s="6">
-        <v>7</v>
-      </c>
-      <c r="J224" s="5"/>
-      <c r="K224" s="5"/>
-      <c r="L224" s="5"/>
-    </row>
-    <row r="225" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B225" s="4">
-        <v>8</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E225" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F225" s="6"/>
-      <c r="G225" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="H225" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I225" s="6">
-        <v>8</v>
-      </c>
-      <c r="J225" s="5"/>
-      <c r="K225" s="5"/>
-      <c r="L225" s="5"/>
-    </row>
-    <row r="226" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B226" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E226" s="4" t="s">
+      <c r="E226" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G226" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I226" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B227" s="4">
+        <v>2</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H227" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I227" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B228" s="4">
+        <v>2</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G228" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I228" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B229" s="4">
+        <v>4</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E229" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F226" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G226" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H226" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="I226" s="6">
-        <v>1</v>
-      </c>
-      <c r="K226" s="5"/>
-    </row>
-    <row r="227" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B227" s="4">
-        <v>9</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F227" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G227" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="H227" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I227" s="6">
-        <v>2</v>
-      </c>
-      <c r="K227" s="5"/>
-    </row>
-    <row r="228" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B228" s="4">
-        <v>9</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F228" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G228" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="H228" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I228" s="6">
-        <v>3</v>
-      </c>
-      <c r="K228" s="5"/>
-    </row>
-    <row r="229" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B229" s="4">
-        <v>9</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F229" s="6" t="s">
-        <v>262</v>
+      <c r="F229" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="G229" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="H229" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I229" s="6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B230" s="4">
         <v>4</v>
       </c>
-      <c r="K229" s="5"/>
-    </row>
-    <row r="230" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B230" s="4">
-        <v>9</v>
-      </c>
       <c r="C230" s="4" t="s">
-        <v>241</v>
+        <v>488</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E230" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F230" s="6" t="s">
-        <v>261</v>
+      <c r="F230" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="H230" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I230" s="6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B231" s="4">
+        <v>4</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B232" s="4">
+        <v>4</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G232" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B233" s="4">
         <v>5</v>
       </c>
-      <c r="K230" s="5"/>
-    </row>
-    <row r="231" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B231" s="4">
-        <v>9</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F231" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G231" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H231" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I231" s="6">
-        <v>6</v>
-      </c>
-      <c r="K231" s="5"/>
-    </row>
-    <row r="232" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B232" s="4">
-        <v>9</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E232" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F232" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G232" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H232" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I232" s="6">
-        <v>7</v>
-      </c>
-      <c r="K232" s="5"/>
-    </row>
-    <row r="233" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B233" s="4">
-        <v>9</v>
-      </c>
       <c r="C233" s="4" t="s">
-        <v>241</v>
+        <v>452</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>3</v>
+        <v>197</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G233" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H233" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I233" s="6">
-        <v>8</v>
-      </c>
-      <c r="K233" s="5"/>
-    </row>
-    <row r="234" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="G233" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H233" s="5"/>
+    </row>
+    <row r="234" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>173</v>
+        <v>440</v>
       </c>
       <c r="B234" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>241</v>
+        <v>452</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E234" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G234" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H234" s="5"/>
+    </row>
+    <row r="235" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B235" s="4">
+        <v>5</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G235" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H235" s="5"/>
+    </row>
+    <row r="236" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B236" s="4">
+        <v>5</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G236" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H236" s="5"/>
+    </row>
+    <row r="237" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B237" s="4">
+        <v>5</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G237" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H237" s="5"/>
+    </row>
+    <row r="238" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B238" s="4">
+        <v>5</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G238" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="K238" s="5"/>
+      <c r="M238" s="5"/>
+    </row>
+    <row r="239" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B239" s="4">
+        <v>5</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G239" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B240" s="4">
+        <v>5</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G240" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B241" s="4">
+        <v>5</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E241" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F234" s="6"/>
-      <c r="G234" s="8" t="s">
+      <c r="F241" s="6"/>
+      <c r="G241" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H234" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I234" s="6">
-        <v>9</v>
-      </c>
-      <c r="K234" s="5"/>
-    </row>
-    <row r="235" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B235" s="4">
-        <v>1</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F235" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="G235" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="H235" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I235" s="6">
-        <v>1</v>
-      </c>
-      <c r="K235" s="5"/>
-    </row>
-    <row r="236" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B236" s="4">
-        <v>1</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E236" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F236" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G236" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="H236" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I236" s="6">
-        <v>2</v>
-      </c>
-      <c r="K236" s="5"/>
-    </row>
-    <row r="237" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B237" s="4">
-        <v>1</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E237" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F237" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G237" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="H237" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="I237" s="6">
-        <v>3</v>
-      </c>
-      <c r="K237" s="5"/>
-    </row>
-    <row r="238" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B238" s="4">
-        <v>1</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E238" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F238" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G238" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="H238" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I238" s="6">
+    </row>
+    <row r="242" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B242" s="4">
         <v>4</v>
       </c>
-      <c r="K238" s="5"/>
-    </row>
-    <row r="239" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B239" s="4">
-        <v>1</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D239" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E239" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F239" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="G239" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H239" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="I239" s="6">
-        <v>5</v>
-      </c>
-      <c r="K239" s="5"/>
-    </row>
-    <row r="240" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B240" s="4">
-        <v>1</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D240" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E240" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F240" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="G240" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="H240" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I240" s="6">
-        <v>6</v>
-      </c>
-      <c r="K240" s="5"/>
-    </row>
-    <row r="241" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B241" s="4">
-        <v>2</v>
-      </c>
-      <c r="C241" s="4" t="s">
+      <c r="C242" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G242" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H242" s="5"/>
+      <c r="K242" s="5"/>
+      <c r="M242" s="5"/>
+    </row>
+    <row r="243" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B243" s="4">
+        <v>4</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G243" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H243" s="5"/>
+      <c r="K243" s="5"/>
+      <c r="M243" s="5"/>
+    </row>
+    <row r="244" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B244" s="4">
+        <v>4</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G244" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H244" s="5"/>
+      <c r="K244" s="5"/>
+      <c r="M244" s="5"/>
+    </row>
+    <row r="245" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B245" s="4">
+        <v>4</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G245" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H245" s="5"/>
+      <c r="K245" s="5"/>
+      <c r="M245" s="5"/>
+    </row>
+    <row r="246" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B246" s="4">
+        <v>4</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G246" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H246" s="5"/>
+      <c r="K246" s="5"/>
+      <c r="M246" s="5"/>
+    </row>
+    <row r="247" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D241" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E241" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F241" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="G241" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="H241" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I241" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B242" s="4">
-        <v>2</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F242" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G242" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="H242" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I242" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B243" s="4">
-        <v>2</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D243" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F243" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G243" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="H243" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="I243" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B244" s="4">
-        <v>2</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D244" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F244" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G244" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="H244" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I244" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B245" s="4">
-        <v>2</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D245" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F245" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="G245" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H245" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="I245" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B246" s="4">
-        <v>2</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D246" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E246" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F246" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="G246" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="H246" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I246" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="4" t="s">
+      <c r="B247" s="4">
+        <v>1</v>
+      </c>
+      <c r="C247" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="B247" s="4">
-        <v>1</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I247" s="6"/>
       <c r="J247" s="5"/>
       <c r="K247" s="5"/>
     </row>
-    <row r="248" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B248" s="4">
+        <v>1</v>
+      </c>
+      <c r="C248" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="B248" s="4">
-        <v>1</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G248" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I248" s="6"/>
       <c r="J248" s="5"/>
       <c r="K248" s="5"/>
     </row>
-    <row r="249" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B249" s="4">
         <v>2</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I249" s="6"/>
       <c r="K249" s="5"/>
     </row>
-    <row r="250" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B250" s="4">
         <v>2</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H250" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I250" s="6"/>
       <c r="K250" s="5"/>
     </row>
-    <row r="251" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B251" s="4">
         <v>2</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I251" s="6"/>
       <c r="K251" s="5"/>
     </row>
-    <row r="252" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B252" s="4">
         <v>2</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G252" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I252" s="6"/>
       <c r="K252" s="5"/>
     </row>
-    <row r="253" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B253" s="4">
         <v>2</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I253" s="6"/>
       <c r="K253" s="5"/>
     </row>
-    <row r="254" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B254" s="4">
         <v>2</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I254" s="6"/>
       <c r="K254" s="5"/>
     </row>
-    <row r="255" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B255" s="4">
         <v>2</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I255" s="6"/>
       <c r="K255" s="5"/>
     </row>
-    <row r="256" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B256" s="4">
         <v>2</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I256" s="6"/>
       <c r="K256" s="5"/>
     </row>
     <row r="257" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B257" s="4">
         <v>2</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I257" s="6"/>
       <c r="K257" s="5"/>
     </row>
     <row r="258" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B258" s="4">
         <v>2</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I258" s="6"/>
       <c r="K258" s="5"/>
     </row>
     <row r="259" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B259" s="4">
         <v>2</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I259" s="6"/>
       <c r="K259" s="5"/>
     </row>
     <row r="260" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B260" s="4">
         <v>3</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G260" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B261" s="4">
         <v>3</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G261" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
